--- a/data/s_vals/2022/wesneski_hayden.xlsx
+++ b/data/s_vals/2022/wesneski_hayden.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03698960639585658</v>
+        <v>1.292064567892659e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1990121036566324</v>
+        <v>0.04071648406533734</v>
       </c>
       <c r="D2" t="n">
-        <v>2.263954110880881</v>
+        <v>22.3905356188092</v>
       </c>
       <c r="E2" t="n">
-        <v>4.68514169765536</v>
+        <v>2195978.878461985</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.18509751858873</v>
+        <v>2196001.309727008</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.016799631930417</v>
+        <v>0.2917716402565462</v>
       </c>
       <c r="C3" t="n">
-        <v>845392.7615946477</v>
+        <v>2.903117352495289e+17</v>
       </c>
       <c r="D3" t="n">
-        <v>504.0802338798485</v>
+        <v>19477208507.93593</v>
       </c>
       <c r="E3" t="n">
-        <v>12.84432016002527</v>
+        <v>91228006295.30009</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>845910.7029483194</v>
+        <v>2.903118459547437e+17</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/wesneski_hayden.xlsx
+++ b/data/s_vals/2022/wesneski_hayden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>2196001.309727008</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +521,9 @@
       </c>
       <c r="G3" t="n">
         <v>2.903118459547437e+17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/wesneski_hayden.xlsx
+++ b/data/s_vals/2022/wesneski_hayden.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.292064567892659e-05</v>
+        <v>1.19090754144846e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04071648406533734</v>
+        <v>0.04103571897497393</v>
       </c>
       <c r="D2" t="n">
-        <v>22.3905356188092</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E2" t="n">
-        <v>2195978.878461985</v>
+        <v>14773364.14517103</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2196001.309727008</v>
+        <v>14773382.90301604</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2917716402565462</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C3" t="n">
-        <v>2.903117352495289e+17</v>
+        <v>1.605228790164796e+17</v>
       </c>
       <c r="D3" t="n">
-        <v>19477208507.93593</v>
+        <v>4690580119.294427</v>
       </c>
       <c r="E3" t="n">
-        <v>91228006295.30009</v>
+        <v>2459690191846.092</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.903118459547437e+17</v>
+        <v>1.605253433972516e+17</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
